--- a/data/trans_bre/P16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>638,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1214,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>356,1%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 5,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 5,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,88; 2642,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,65; 882,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>508,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>557,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 5,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 3,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 4,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>139,62; 1519,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,48; 929,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,0; 788,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 8017,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>695,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>566,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,79%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; 222,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>207,19; 2029,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>145,74; 2758,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,61; 446,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>421,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>284,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 590,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,72; 1443,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,66; 914,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,15; 406,69</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>778,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,58%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 7,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 353,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,07; 3106,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 560,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,78; 176,24</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>202,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,82%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 6,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 9,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 5,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 6,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 135,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,35; 463,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,05; 258,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,39; 231,6</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>351,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,35%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 5,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 3,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,61; 215,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>219,64; 572,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,27; 367,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,73; 210,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>356,1%</t>
+          <t>375,94%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,18</t>
+          <t>-0,14; 5,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>557,78%</t>
+          <t>504,75%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,58</t>
+          <t>0,57; 4,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 8017,24</t>
+          <t>-16,61; 7773,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>104,79%</t>
+          <t>113,33%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,8</t>
+          <t>-0,07; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 446,8</t>
+          <t>-19,96; 473,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>145,23%</t>
+          <t>211,48%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,74</t>
+          <t>1,71; 5,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 406,69</t>
+          <t>57,29; 739,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>80,93%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,91</t>
+          <t>0,37; 4,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 176,24</t>
+          <t>4,92; 167,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>51,71%</t>
+          <t>154,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>202,14%</t>
+          <t>143,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>102,54%</t>
+          <t>177,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>128,82%</t>
+          <t>27,84%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,11</t>
+          <t>2,37; 10,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,64</t>
+          <t>0,98; 8,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,42</t>
+          <t>0,95; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,55</t>
+          <t>-2,56; 3,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 135,41</t>
+          <t>31,1; 394,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,35; 463,17</t>
+          <t>-0,09; 460,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 258,37</t>
+          <t>14,78; 713,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,39; 231,6</t>
+          <t>-56,04; 139,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>137,69%</t>
+          <t>-13,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>351,14%</t>
+          <t>249,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>224,97%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>143,35%</t>
+          <t>198,49%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,3; 3,86</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 13,21</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 5,99</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 9,8</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-55,13; 80,1</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,27; 841,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; 218,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90,06; 391,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137,69%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>351,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>224,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>148,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,09; 4,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,78; 5,7</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,09; 3,66</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 3,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 3,85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>78,61; 215,67</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>219,64; 572,34</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>129,27; 367,87</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>84,73; 210,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>81,73; 236,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A03-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,6</t>
+          <t>1,9; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,18</t>
+          <t>-0,18; 3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,85</t>
+          <t>1,32; 4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,25</t>
+          <t>-0,08; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>127,88; 2642,1</t>
+          <t>134,47; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 882,15</t>
+          <t>-46,24; 784,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,8</t>
+          <t>2,3; 5,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,38</t>
+          <t>2,05; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,25</t>
+          <t>0,16; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,47</t>
+          <t>0,55; 4,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>139,62; 1519,72</t>
+          <t>169,2; 1572,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,48; 929,48</t>
+          <t>76,47; 862,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 788,3</t>
+          <t>-5,46; 651,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 7773,29</t>
+          <t>-37,62; 6762,1</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,91</t>
+          <t>-0,68; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,09</t>
+          <t>3,29; 6,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,45</t>
+          <t>1,96; 5,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,88</t>
+          <t>-0,21; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 222,85</t>
+          <t>-27,21; 205,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>207,19; 2029,67</t>
+          <t>234,4; 2397,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>145,74; 2758,26</t>
+          <t>137,4; 2473,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 473,97</t>
+          <t>-21,17; 528,61</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,86</t>
+          <t>0,49; 4,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,86</t>
+          <t>1,64; 5,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,85</t>
+          <t>1,28; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,4</t>
+          <t>1,7; 5,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 590,65</t>
+          <t>7,19; 506,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>102,72; 1443,98</t>
+          <t>84,23; 1724,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,66; 914,15</t>
+          <t>58,85; 1020,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,29; 739,94</t>
+          <t>60,12; 742,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,51</t>
+          <t>0,34; 6,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,75</t>
+          <t>3,16; 7,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,48</t>
+          <t>0,13; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,9</t>
+          <t>0,93; 5,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 353,72</t>
+          <t>2,47; 352,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>127,07; 3106,81</t>
+          <t>125,81; 3315,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 560,94</t>
+          <t>-16,26; 565,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 167,43</t>
+          <t>15,31; 194,38</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,27</t>
+          <t>2,23; 10,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,46</t>
+          <t>0,87; 8,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,7</t>
+          <t>0,95; 6,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,83</t>
+          <t>-2,3; 3,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,1; 394,73</t>
+          <t>25,81; 395,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 460,38</t>
+          <t>7,28; 468,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 713,35</t>
+          <t>10,0; 635,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 139,81</t>
+          <t>-55,13; 131,03</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 3,86</t>
+          <t>-6,51; 4,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,21</t>
+          <t>4,13; 13,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 5,99</t>
+          <t>-1,3; 6,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,8</t>
+          <t>4,63; 9,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 80,1</t>
+          <t>-55,59; 88,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,27; 841,05</t>
+          <t>45,42; 851,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 218,96</t>
+          <t>-25,88; 215,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,06; 391,3</t>
+          <t>81,66; 420,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,05</t>
+          <t>2,11; 3,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,7</t>
+          <t>3,8; 5,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,09; 3,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,85</t>
+          <t>1,88; 3,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>78,61; 215,67</t>
+          <t>81,59; 222,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>219,64; 572,34</t>
+          <t>221,47; 535,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>129,27; 367,87</t>
+          <t>130,28; 361,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>81,73; 236,17</t>
+          <t>84,72; 237,71</t>
         </is>
       </c>
     </row>
